--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb3-Rhbdl2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb3-Rhbdl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Efnb3</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,10 +543,10 @@
         <v>0.45995</v>
       </c>
       <c r="I2">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964018</v>
       </c>
       <c r="J2">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964017</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,122 +555,122 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.825757333333333</v>
+        <v>2.082435</v>
       </c>
       <c r="N2">
-        <v>5.477272</v>
+        <v>6.247305</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9920259111440977</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9920259111440977</v>
       </c>
       <c r="Q2">
-        <v>0.2799190284888889</v>
+        <v>0.31927199275</v>
       </c>
       <c r="R2">
-        <v>2.5192712564</v>
+        <v>2.87344793475</v>
       </c>
       <c r="S2">
-        <v>0.1117088182569538</v>
+        <v>0.109289544403437</v>
       </c>
       <c r="T2">
-        <v>0.1117088182569538</v>
+        <v>0.109289544403437</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.9559960000000002</v>
+        <v>0.1533166666666667</v>
       </c>
       <c r="H3">
-        <v>2.867988</v>
+        <v>0.45995</v>
       </c>
       <c r="I3">
-        <v>0.6965529954454279</v>
+        <v>0.1101680340964018</v>
       </c>
       <c r="J3">
-        <v>0.6965529954454278</v>
+        <v>0.1101680340964017</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.825757333333333</v>
+        <v>0.016739</v>
       </c>
       <c r="N3">
-        <v>5.477272</v>
+        <v>0.050217</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.007974088855902371</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.007974088855902369</v>
       </c>
       <c r="Q3">
-        <v>1.745416707637334</v>
+        <v>0.002566367683333334</v>
       </c>
       <c r="R3">
-        <v>15.708750368736</v>
+        <v>0.02309730915</v>
       </c>
       <c r="S3">
-        <v>0.6965529954454279</v>
+        <v>0.0008784896929647897</v>
       </c>
       <c r="T3">
-        <v>0.6965529954454278</v>
+        <v>0.0008784896929647894</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2631543333333333</v>
+        <v>0.9559960000000002</v>
       </c>
       <c r="H4">
-        <v>0.789463</v>
+        <v>2.867988</v>
       </c>
       <c r="I4">
-        <v>0.1917381862976183</v>
+        <v>0.6869455370628789</v>
       </c>
       <c r="J4">
-        <v>0.1917381862976183</v>
+        <v>0.6869455370628788</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +679,338 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.825757333333333</v>
+        <v>2.082435</v>
       </c>
       <c r="N4">
-        <v>5.477272</v>
+        <v>6.247305</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9920259111440977</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9920259111440977</v>
       </c>
       <c r="Q4">
-        <v>0.4804559538817778</v>
+        <v>1.99079953026</v>
       </c>
       <c r="R4">
-        <v>4.324103584936</v>
+        <v>17.91719577234</v>
       </c>
       <c r="S4">
-        <v>0.1917381862976183</v>
+        <v>0.6814677723111739</v>
       </c>
       <c r="T4">
-        <v>0.1917381862976183</v>
+        <v>0.6814677723111738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.9559960000000002</v>
+      </c>
+      <c r="H5">
+        <v>2.867988</v>
+      </c>
+      <c r="I5">
+        <v>0.6869455370628789</v>
+      </c>
+      <c r="J5">
+        <v>0.6869455370628788</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.016739</v>
+      </c>
+      <c r="N5">
+        <v>0.050217</v>
+      </c>
+      <c r="O5">
+        <v>0.007974088855902371</v>
+      </c>
+      <c r="P5">
+        <v>0.007974088855902369</v>
+      </c>
+      <c r="Q5">
+        <v>0.016002417044</v>
+      </c>
+      <c r="R5">
+        <v>0.144021753396</v>
+      </c>
+      <c r="S5">
+        <v>0.005477764751704971</v>
+      </c>
+      <c r="T5">
+        <v>0.00547776475170497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.1265133333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.37954</v>
+      </c>
+      <c r="I6">
+        <v>0.09090808927263468</v>
+      </c>
+      <c r="J6">
+        <v>0.09090808927263468</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.082435</v>
+      </c>
+      <c r="N6">
+        <v>6.247305</v>
+      </c>
+      <c r="O6">
+        <v>0.9920259111440977</v>
+      </c>
+      <c r="P6">
+        <v>0.9920259111440977</v>
+      </c>
+      <c r="Q6">
+        <v>0.2634557933</v>
+      </c>
+      <c r="R6">
+        <v>2.3711021397</v>
+      </c>
+      <c r="S6">
+        <v>0.09018318009105439</v>
+      </c>
+      <c r="T6">
+        <v>0.09018318009105439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1265133333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.37954</v>
+      </c>
+      <c r="I7">
+        <v>0.09090808927263468</v>
+      </c>
+      <c r="J7">
+        <v>0.09090808927263468</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.016739</v>
+      </c>
+      <c r="N7">
+        <v>0.050217</v>
+      </c>
+      <c r="O7">
+        <v>0.007974088855902371</v>
+      </c>
+      <c r="P7">
+        <v>0.007974088855902369</v>
+      </c>
+      <c r="Q7">
+        <v>0.002117706686666667</v>
+      </c>
+      <c r="R7">
+        <v>0.01905936018</v>
+      </c>
+      <c r="S7">
+        <v>0.000724909181580294</v>
+      </c>
+      <c r="T7">
+        <v>0.0007249091815802938</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.155836</v>
+      </c>
+      <c r="H8">
+        <v>0.467508</v>
+      </c>
+      <c r="I8">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="J8">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.082435</v>
+      </c>
+      <c r="N8">
+        <v>6.247305</v>
+      </c>
+      <c r="O8">
+        <v>0.9920259111440977</v>
+      </c>
+      <c r="P8">
+        <v>0.9920259111440977</v>
+      </c>
+      <c r="Q8">
+        <v>0.32451834066</v>
+      </c>
+      <c r="R8">
+        <v>2.92066506594</v>
+      </c>
+      <c r="S8">
+        <v>0.1110854143384325</v>
+      </c>
+      <c r="T8">
+        <v>0.1110854143384324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.155836</v>
+      </c>
+      <c r="H9">
+        <v>0.467508</v>
+      </c>
+      <c r="I9">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="J9">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.016739</v>
+      </c>
+      <c r="N9">
+        <v>0.050217</v>
+      </c>
+      <c r="O9">
+        <v>0.007974088855902371</v>
+      </c>
+      <c r="P9">
+        <v>0.007974088855902369</v>
+      </c>
+      <c r="Q9">
+        <v>0.002608538804</v>
+      </c>
+      <c r="R9">
+        <v>0.023476849236</v>
+      </c>
+      <c r="S9">
+        <v>0.0008929252296523162</v>
+      </c>
+      <c r="T9">
+        <v>0.000892925229652316</v>
       </c>
     </row>
   </sheetData>
